--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.011420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.011420.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1723,12 +1723,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1989,12 +1989,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3779,12 +3779,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4205,12 +4205,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4357,12 +4357,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6429,12 +6429,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6503,12 +6503,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6997,12 +6997,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7111,12 +7111,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7339,12 +7339,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7529,12 +7529,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7605,12 +7605,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7643,12 +7643,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7799,12 +7799,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7837,12 +7837,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7951,12 +7951,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8027,12 +8027,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8103,12 +8103,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8217,12 +8217,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8559,12 +8559,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8787,12 +8787,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8901,12 +8901,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9205,12 +9205,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9243,12 +9243,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9623,12 +9623,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9699,12 +9699,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10117,12 +10117,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10307,12 +10307,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10535,12 +10535,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10691,12 +10691,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -11143,12 +11143,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11295,12 +11295,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12055,12 +12055,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12663,12 +12663,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12739,12 +12739,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12777,12 +12777,12 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13499,12 +13499,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13689,12 +13689,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13803,12 +13803,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14031,12 +14031,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14305,12 +14305,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14419,12 +14419,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14495,12 +14495,12 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15027,12 +15027,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15103,12 +15103,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15217,12 +15217,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15293,12 +15293,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15711,12 +15711,12 @@
       <c r="H401" t="inlineStr"/>
       <c r="I401" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16015,12 +16015,12 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16281,12 +16281,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16433,12 +16433,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16509,12 +16509,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17193,12 +17193,12 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17839,12 +17839,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17915,12 +17915,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17953,12 +17953,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18523,12 +18523,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19245,12 +19245,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19397,12 +19397,12 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19435,12 +19435,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19515,12 +19515,12 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19781,12 +19781,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19971,12 +19971,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20085,12 +20085,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20275,12 +20275,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20389,12 +20389,12 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -20427,12 +20427,12 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -20617,12 +20617,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21073,12 +21073,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21149,12 +21149,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21225,12 +21225,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21491,12 +21491,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21719,12 +21719,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21757,12 +21757,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22213,12 +22213,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22251,12 +22251,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22441,12 +22441,12 @@
       <c r="H578" t="inlineStr"/>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22479,12 +22479,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22555,12 +22555,12 @@
       <c r="H581" t="inlineStr"/>
       <c r="I581" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23133,12 +23133,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23517,12 +23517,12 @@
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23863,12 +23863,12 @@
       <c r="H615" t="inlineStr"/>
       <c r="I615" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
